--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>Case_Id</t>
   </si>
@@ -172,130 +172,136 @@
     <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'136778856','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
   </si>
   <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'136778856','pwd':'1234'}</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":None,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>正常充值</t>
+  </si>
+  <si>
+    <t>member/recharge</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','amount':'5000'}</t>
+  </si>
+  <si>
+    <t>{'sql_data': 'select * from member where MobilePhone=18688775656','sql_amount': 'select LeaveAmount from member where MobilePhone=18688775656'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":#content#,"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":265,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18688775656","leaveamount":"408573.00","type":"1","regtime":"2019-05-02 14:05:43.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>Falsed</t>
   </si>
   <si>
-    <t>用户名错误</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'136778856','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'136778856','pwd':'1234'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":None,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>recharge</t>
-  </si>
-  <si>
-    <t>正常充值</t>
-  </si>
-  <si>
-    <t>member/recharge</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13677885645','amount':'5'}</t>
+    <t>{'mobilephone':'','amount':'5'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>充值金额为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13677885645','amount':''}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":None,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>手机号格式不正确</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'0077885645','amount':'5'}</t>
+  </si>
+  <si>
+    <t>充值金额后3位小数</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13677885645','amount':'5.001'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":None,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>充值金额大于50万</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13677885645','amount':'500001'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":None,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>充值手机号不是会员</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18722113456','amount':'500.01'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":None,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>正常取现</t>
+  </si>
+  <si>
+    <t>member/withdraw</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13677885645','amount':'20'}</t>
   </si>
   <si>
     <t>{'sql_data': 'select * from member where MobilePhone=13677885645','sql_amount': 'select LeaveAmount from member where MobilePhone=13677885645'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":#content#,"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123496,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13677885645","leaveamount":"32261.24","type":"1","regtime":"2019-03-11 08:57:09.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','amount':'5'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>充值金额为空</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13677885645','amount':''}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":None,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>手机号格式不正确</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'0077885645','amount':'5'}</t>
-  </si>
-  <si>
-    <t>充值金额后3位小数</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13677885645','amount':'5.001'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":None,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>充值金额大于50万</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13677885645','amount':'500001'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":None,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>充值手机号不是会员</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18722113456','amount':'500.01'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":None,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>withdraw</t>
-  </si>
-  <si>
-    <t>正常取现</t>
-  </si>
-  <si>
-    <t>member/withdraw</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13677885645','amount':'20'}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":#content#,"msg":"取现成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123496,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13677885645","leaveamount":"32256.24","type":"1","regtime":"2019-03-11 08:57:09.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
     <t>取现金额为空</t>
@@ -328,9 +334,6 @@
     <t>{"status":1,"code":"20119","data":None,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
     <t>{'mobilephone':'#normal_user#','pwd':'#normal_pwd#'}</t>
   </si>
   <si>
@@ -370,7 +373,7 @@
     <t>{'status':0,'code':'20109','data': None,'msg':'请根据数值参数的类型对应输入合法的数字'}</t>
   </si>
   <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+    <t>{"status":0,"code":"20109","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
   </si>
   <si>
     <t>不存在的会员</t>
@@ -382,6 +385,9 @@
     <t>{'status':0,'code':'20105','data': None,'msg':'不存在该会员'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20105","data":null,"msg":"不存在该会员"}</t>
+  </si>
+  <si>
     <t>借款金额为1</t>
   </si>
   <si>
@@ -391,6 +397,9 @@
     <t>{'status':0,'code':'20106','data': None,'msg':'参数错误：借款金额amount必须为大于1000并能被100整除的正整数'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+  </si>
+  <si>
     <t>借款金额为1001</t>
   </si>
   <si>
@@ -406,6 +415,9 @@
     <t>{'status':0,'code':'20107','data': None,'msg':'参数错误：借款利率loanRate值必须大于0小于或等于24'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
+  </si>
+  <si>
     <t>利率为25</t>
   </si>
   <si>
@@ -421,6 +433,9 @@
     <t>{'status':0,'code':'20108','data': None,'msg':'参数错误：借款日期类型loanDateType只能为0,2,4'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
+  </si>
+  <si>
     <t>标题参数为空</t>
   </si>
   <si>
@@ -430,6 +445,9 @@
     <t>{'status':0,'code':'20103','data': None,'msg':'所有参数不能为空'}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"所有参数不能为空"}</t>
+  </si>
+  <si>
     <t>audit</t>
   </si>
   <si>
@@ -487,10 +505,13 @@
     <t>不存在的标</t>
   </si>
   <si>
-    <t>{'id':333,'status':5}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20204","data":None,"msg":"参数错误：错误的标id 值"}</t>
+    <t>{'id':30033,'status':5}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20206","data":None,"msg":"不存在该项目"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
   </si>
   <si>
     <t>标id为空</t>
@@ -502,6 +523,9 @@
     <t>{"status":0,"code":"20203","data":None,"msg":"参数错误：所有参数不能为空"}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
+  </si>
+  <si>
     <t>invest</t>
   </si>
   <si>
@@ -511,7 +535,7 @@
     <t>member/bidLoan</t>
   </si>
   <si>
-    <t>{'memberId':'#user_id#','password':'#normal_pwd#','loanId':17527,'amount':100}</t>
+    <t>{'memberId':'#user_id#','password':'#normal_pwd#','loanId':5799,'amount':100}</t>
   </si>
   <si>
     <t>{'sql': 'select LeaveAmount from member where Id=#user_id#'}</t>
@@ -673,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,9 +709,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -726,9 +747,6 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1020,7 +1038,9 @@
     <col customWidth="1" max="5" min="5" width="10.5"/>
     <col customWidth="1" max="6" min="6" width="26.5"/>
     <col customWidth="1" max="7" min="7" width="10.58203125"/>
-    <col customWidth="1" max="8" min="8" width="11.4140625"/>
+    <col customWidth="1" max="8" min="8" width="16.4140625"/>
+    <col customWidth="1" max="9" min="9" width="17.33203125"/>
+    <col customWidth="1" max="10" min="10" width="14.08203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1065,7 +1085,7 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1095,7 +1115,7 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1125,7 +1145,7 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1155,7 +1175,7 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1185,7 +1205,7 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1215,7 +1235,7 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1245,7 +1265,7 @@
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1272,10 +1292,10 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1305,7 +1325,7 @@
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1395,10 +1415,10 @@
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1415,7 +1435,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="3" spans="1:10">
@@ -1428,7 +1448,7 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1458,7 +1478,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1486,23 +1506,23 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -1518,7 +1538,7 @@
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1529,10 +1549,10 @@
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -1551,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1599,13 +1619,13 @@
       </c>
     </row>
     <row customHeight="1" ht="28" r="2" spans="1:10">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1615,16 +1635,16 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1635,10 +1655,10 @@
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1657,11 +1677,11 @@
         <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="4" spans="1:10">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1670,23 +1690,23 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1698,46 +1718,46 @@
         <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="6" spans="1:10">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="s">
@@ -1746,7 +1766,7 @@
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1758,55 +1778,55 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="8" spans="1:10">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1818,25 +1838,25 @@
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1855,11 +1875,12 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
+    <col customWidth="1" max="3" min="3" width="14.1640625"/>
     <col customWidth="1" max="4" min="4" width="23.75"/>
     <col customWidth="1" max="6" min="6" width="19.4140625"/>
     <col customWidth="1" max="7" min="7" width="12.6640625"/>
@@ -1900,13 +1921,13 @@
       </c>
     </row>
     <row customHeight="1" ht="28" r="2" spans="1:11">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1920,12 +1941,12 @@
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="n"/>
@@ -1935,61 +1956,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>88</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>17</v>
+        <v>93</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="K3" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="28" r="4" spans="1:11">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>88</v>
+      <c r="D4" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="3" t="n"/>
@@ -1999,50 +2020,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="28" r="6" spans="1:11">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="s">
@@ -2051,7 +2072,7 @@
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="3" t="n"/>
@@ -2061,59 +2082,59 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="28" r="8" spans="1:11">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="3" t="n"/>
@@ -2123,28 +2144,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="3" t="n"/>
@@ -2154,28 +2175,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3" t="n"/>
@@ -2194,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -2204,7 +2225,7 @@
     <col customWidth="1" max="4" min="4" width="16.58203125"/>
     <col customWidth="1" max="7" min="6" width="15.83203125"/>
     <col customWidth="1" max="8" min="8" width="18.33203125"/>
-    <col customWidth="1" max="9" min="9" width="16.08203125"/>
+    <col customWidth="1" max="9" min="9" width="25.4140625"/>
     <col customWidth="1" max="10" min="10" width="15.75"/>
   </cols>
   <sheetData>
@@ -2236,492 +2257,492 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="2" spans="1:10">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="3" spans="1:10">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="4" spans="1:10">
+      <c r="A4" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28" r="4" spans="1:10">
-      <c r="A4" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>51</v>
+      <c r="I4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="5" spans="1:10">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>51</v>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="6" spans="1:10">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>51</v>
+      <c r="F6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="7" spans="1:10">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>51</v>
+      <c r="I7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="8" spans="1:10">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>51</v>
+      <c r="F8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="9" spans="1:10">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>51</v>
+      <c r="F9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="10" spans="1:10">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>51</v>
+      <c r="F10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="11" spans="1:10">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>51</v>
+      <c r="F11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="12" spans="1:10">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="F12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="13" spans="1:10">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="14" spans="1:10">
+      <c r="A14" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28" r="14" spans="1:10">
-      <c r="A14" s="17" t="n">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="15" spans="1:10">
+      <c r="A15" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28" r="15" spans="1:10">
-      <c r="A15" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="16" spans="1:10">
+      <c r="A16" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28" r="16" spans="1:10">
-      <c r="A16" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="17" spans="1:10">
+      <c r="A17" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28" r="17" spans="1:10">
-      <c r="A17" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>51</v>
+      <c r="F17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="14" r="18" spans="1:10"/>
@@ -2740,7 +2761,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -2794,23 +2815,23 @@
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -2821,28 +2842,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>165</v>
+      <c r="F3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -2853,26 +2874,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="9" t="s">
-        <v>169</v>
+      <c r="F4" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -2883,28 +2904,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="10" t="n"/>
+      <c r="F5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9" t="n"/>
       <c r="H5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2913,29 +2934,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="10" t="n"/>
+      <c r="F6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="9" t="n"/>
       <c r="H6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>51</v>
+        <v>185</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="28" r="7" spans="1:10">
@@ -2943,28 +2964,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="10" t="n"/>
+      <c r="F7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="9" t="n"/>
       <c r="H7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2993,12 +3014,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="n">
-        <v>17704310128</v>
+        <v>17704310133</v>
       </c>
     </row>
   </sheetData>
